--- a/dsmb_ccru_tables/category BySubject EXAMPLE_STUDY Cohort D 30OCT2020.xlsx
+++ b/dsmb_ccru_tables/category BySubject EXAMPLE_STUDY Cohort D 30OCT2020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -29,40 +29,64 @@
     <t xml:space="preserve">% of the subjects that this comprises of the total accrual (N=3)</t>
   </si>
   <si>
+    <t xml:space="preserve">BLOOD AND LYMPHATIC SYSTEM DISORDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.67</t>
+  </si>
+  <si>
     <t xml:space="preserve">CARDIAC DISORDERS</t>
   </si>
   <si>
     <t xml:space="preserve"> 33.33</t>
   </si>
   <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GASTROINTESTINAL DISORDERS</t>
+  </si>
+  <si>
     <t xml:space="preserve">33.33</t>
   </si>
   <si>
-    <t xml:space="preserve">GASTROINTESTINAL DISORDERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
     <t xml:space="preserve">GENERAL DISORDERS AND ADMINISTRATION SITE CONDITIONS</t>
   </si>
   <si>
+    <t xml:space="preserve"> 66.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEPATOBILIARY DISORDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMMUNE SYSTEM DISORDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFECTIONS AND INFESTATIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INVESTIGATIONS</t>
+  </si>
+  <si>
     <t xml:space="preserve">METABOLISM AND NUTRITION DISORDERS</t>
   </si>
   <si>
+    <t xml:space="preserve">MUSCULOSKELETAL AND CONNECTIVE TISSUE DISORDERS</t>
+  </si>
+  <si>
     <t xml:space="preserve">NERVOUS SYSTEM DISORDERS</t>
   </si>
   <si>
     <t xml:space="preserve">PSYCHIATRIC DISORDERS</t>
   </si>
   <si>
+    <t xml:space="preserve">RENAL AND URINARY DISORDERS</t>
+  </si>
+  <si>
     <t xml:space="preserve">RESPIRATORY, THORACIC AND MEDIASTINAL DISORDERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKIN AND SUBCUTANEOUS TISSUE DISORDERS</t>
   </si>
   <si>
     <t xml:space="preserve">VASCULAR DISORDERS</t>
@@ -601,22 +625,22 @@
   <sheetData>
     <row r="1" ht="50" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" ht="82" customHeight="1">
@@ -641,13 +665,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>7</v>
@@ -658,7 +682,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -678,114 +702,216 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="8" t="n">
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E20" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>10</v>
       </c>
     </row>

--- a/dsmb_ccru_tables/category BySubject EXAMPLE_STUDY Cohort D 30OCT2020.xlsx
+++ b/dsmb_ccru_tables/category BySubject EXAMPLE_STUDY Cohort D 30OCT2020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -20,28 +20,28 @@
     <t xml:space="preserve"># of subjects that have experienced the AE</t>
   </si>
   <si>
-    <t xml:space="preserve">the % of subjects that this comprises of the total accrual (N=3)</t>
+    <t xml:space="preserve">the % of subjects that this comprises of the total accrual (N=6)</t>
   </si>
   <si>
     <t xml:space="preserve"># of subjects that experienced the event at a grade 3 to 5</t>
   </si>
   <si>
-    <t xml:space="preserve">% of the subjects that this comprises of the total accrual (N=3)</t>
+    <t xml:space="preserve">% of the subjects that this comprises of the total accrual (N=6)</t>
   </si>
   <si>
     <t xml:space="preserve">BLOOD AND LYMPHATIC SYSTEM DISORDERS</t>
   </si>
   <si>
-    <t xml:space="preserve">100.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.67</t>
+    <t xml:space="preserve">50.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.33</t>
   </si>
   <si>
     <t xml:space="preserve">CARDIAC DISORDERS</t>
   </si>
   <si>
-    <t xml:space="preserve"> 33.33</t>
+    <t xml:space="preserve">16.67</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -50,13 +50,7 @@
     <t xml:space="preserve">GASTROINTESTINAL DISORDERS</t>
   </si>
   <si>
-    <t xml:space="preserve">33.33</t>
-  </si>
-  <si>
     <t xml:space="preserve">GENERAL DISORDERS AND ADMINISTRATION SITE CONDITIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 66.67</t>
   </si>
   <si>
     <t xml:space="preserve">HEPATOBILIARY DISORDERS</t>
@@ -625,22 +619,22 @@
   <sheetData>
     <row r="1" ht="50" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" ht="82" customHeight="1">
@@ -708,35 +702,35 @@
         <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>2</v>
@@ -747,7 +741,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>1</v>
@@ -759,12 +753,12 @@
         <v>1</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>1</v>
@@ -776,12 +770,12 @@
         <v>1</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>3</v>
@@ -798,24 +792,24 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>1</v>
@@ -832,7 +826,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>1</v>
@@ -849,7 +843,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>1</v>
@@ -866,13 +860,13 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>0</v>
@@ -883,13 +877,13 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>0</v>
@@ -900,7 +894,7 @@
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="8" t="n">
         <v>1</v>
